--- a/Stocks/GUJFLUORO.xlsx
+++ b/Stocks/GUJFLUORO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>773.69999999999993</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>782.72876583381117</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>774.0671753604787</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>55.340166406940128</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>20.049999999999955</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>27</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.74259259259259092</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>777.07394791608533</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>9.0793798250468853</v>
       </c>
       <c r="Y67">
         <v>14.543759753211972</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>735</v>
+      </c>
+      <c r="D83">
+        <v>749</v>
+      </c>
+      <c r="E83">
+        <v>731.3</v>
+      </c>
+      <c r="F83">
+        <v>737</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>739.1</v>
+      </c>
+      <c r="H83">
+        <v>739.34273064319609</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>762.97956337620258</v>
+      </c>
+      <c r="K83">
+        <v>730.51911875867938</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>42.277491350334209</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>17.700000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.3220338983050865</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>748.95697366096135</v>
+      </c>
+      <c r="W83">
+        <v>759.1662506985773</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-10.209277037615948</v>
+      </c>
+      <c r="Y83">
+        <v>-6.163423520173299</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>739.05</v>
+      </c>
+      <c r="D84">
+        <v>751.9</v>
+      </c>
+      <c r="E84">
+        <v>731.35</v>
+      </c>
+      <c r="F84">
+        <v>738</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>740.41666666666663</v>
+      </c>
+      <c r="H84">
+        <v>739.87969865493142</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>760.51743818149089</v>
+      </c>
+      <c r="K84">
+        <v>730.70375903452839</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>43.380672293486107</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.6499999999999773</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>20.549999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.32360097323600934</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>747.27128540542878</v>
+      </c>
+      <c r="W84">
+        <v>757.59838027646049</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-10.327094871031704</v>
+      </c>
+      <c r="Y84">
+        <v>-6.9961577903449799</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>741.75</v>
+      </c>
+      <c r="D85">
+        <v>749.95</v>
+      </c>
+      <c r="E85">
+        <v>735.25</v>
+      </c>
+      <c r="F85">
+        <v>737</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>740.73333333333323</v>
+      </c>
+      <c r="H85">
+        <v>740.30651599413227</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>758.169118585604</v>
+      </c>
+      <c r="K85">
+        <v>731.71403480463323</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>42.368499521641297</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>14.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.11904761904761868</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>745.69108765074748</v>
+      </c>
+      <c r="W85">
+        <v>756.072574330056</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-10.381486679308523</v>
+      </c>
+      <c r="Y85">
+        <v>-7.6732235681376881</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>737.2</v>
+      </c>
+      <c r="D86">
+        <v>746</v>
+      </c>
+      <c r="E86">
+        <v>711.6</v>
+      </c>
+      <c r="F86">
+        <v>717</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>724.86666666666667</v>
+      </c>
+      <c r="H86">
+        <v>732.58659133039941</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>755.46487001102537</v>
+      </c>
+      <c r="K86">
+        <v>727.24424929249255</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>26.759470311898149</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>34.399999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.15697674418604596</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V86">
+        <v>741.27707416601709</v>
+      </c>
+      <c r="W86">
+        <v>753.17830956486671</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-11.901235398849622</v>
+      </c>
+      <c r="Y86">
+        <v>-8.5188259342800752</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>715</v>
+      </c>
+      <c r="D87">
+        <v>751.9</v>
+      </c>
+      <c r="E87">
+        <v>710.05</v>
+      </c>
+      <c r="F87">
+        <v>725</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>728.98333333333323</v>
+      </c>
+      <c r="H87">
+        <v>730.78496233186638</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>754.67267667524197</v>
+      </c>
+      <c r="K87">
+        <v>723.42330500527203</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>38.152183976219689</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>41.850000000000023</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.35722819593787425</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>738.77290890970676</v>
+      </c>
+      <c r="W87">
+        <v>751.0910273748766</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-12.318118465169846</v>
+      </c>
+      <c r="Y87">
+        <v>-9.2786844404580293</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>720.55</v>
+      </c>
+      <c r="D88">
+        <v>730</v>
+      </c>
+      <c r="E88">
+        <v>715.5</v>
+      </c>
+      <c r="F88">
+        <v>719</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>721.5</v>
+      </c>
+      <c r="H88">
+        <v>726.14248116593319</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>749.18985963629927</v>
+      </c>
+      <c r="K88">
+        <v>721.66257055965605</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>33.296547294963503</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>735.73092292359797</v>
+      </c>
+      <c r="W88">
+        <v>748.71391423599687</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-12.982991312398894</v>
+      </c>
+      <c r="Y88">
+        <v>-10.019545814846202</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>724.8</v>
+      </c>
+      <c r="D89">
+        <v>726.05</v>
+      </c>
+      <c r="E89">
+        <v>710.15</v>
+      </c>
+      <c r="F89">
+        <v>714.95</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>717.04999999999984</v>
+      </c>
+      <c r="H89">
+        <v>721.59624058296652</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>744.04766860601057</v>
+      </c>
+      <c r="K89">
+        <v>719.10422154639912</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>30.067745195317279</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.8000000000000682</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.3018867924528349</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>732.53385785842909</v>
+      </c>
+      <c r="W89">
+        <v>746.2128835518489</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-13.679025693419817</v>
+      </c>
+      <c r="Y89">
+        <v>-10.751441790560925</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>715</v>
+      </c>
+      <c r="D90">
+        <v>730</v>
+      </c>
+      <c r="E90">
+        <v>702</v>
+      </c>
+      <c r="F90">
+        <v>719.85</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>717.2833333333333</v>
+      </c>
+      <c r="H90">
+        <v>719.43978695814985</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>740.92596447134156</v>
+      </c>
+      <c r="K90">
+        <v>715.30328342497705</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>39.011883687393158</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>17.850000000000023</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.63750000000000084</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>730.58249511097847</v>
+      </c>
+      <c r="W90">
+        <v>744.26007736282304</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-13.677582251844569</v>
+      </c>
+      <c r="Y90">
+        <v>-11.336669882817654</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>724.9</v>
+      </c>
+      <c r="D91">
+        <v>726.9</v>
+      </c>
+      <c r="E91">
+        <v>711</v>
+      </c>
+      <c r="F91">
+        <v>712.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>716.80000000000007</v>
+      </c>
+      <c r="H91">
+        <v>718.11989347907502</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>737.80908347771015</v>
+      </c>
+      <c r="K91">
+        <v>714.34699821942661</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>31.466088462185411</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>9.4339622641509566E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>727.80057278621257</v>
+      </c>
+      <c r="W91">
+        <v>741.90747903965098</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-14.10690625343841</v>
+      </c>
+      <c r="Y91">
+        <v>-11.890717156941806</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>716</v>
+      </c>
+      <c r="D92">
+        <v>725</v>
+      </c>
+      <c r="E92">
+        <v>710</v>
+      </c>
+      <c r="F92">
+        <v>711</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>715.33333333333337</v>
+      </c>
+      <c r="H92">
+        <v>716.72661340620425</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>734.9626204826634</v>
+      </c>
+      <c r="K92">
+        <v>713.38099861510955</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>29.9864776958993</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>725.21586928064141</v>
+      </c>
+      <c r="W92">
+        <v>739.61803614782502</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-14.40216686718361</v>
+      </c>
+      <c r="Y92">
+        <v>-12.393007098990166</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>719.35</v>
+      </c>
+      <c r="D93">
+        <v>724.9</v>
+      </c>
+      <c r="E93">
+        <v>712</v>
+      </c>
+      <c r="F93">
+        <v>718.35</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>718.41666666666663</v>
+      </c>
+      <c r="H93">
+        <v>717.57164003643538</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>732.72648259762707</v>
+      </c>
+      <c r="K93">
+        <v>713.07411003397408</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>45.642188205235435</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.3500000000000227</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.49224806201550653</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>724.15958169900432</v>
+      </c>
+      <c r="W93">
+        <v>738.04262606280099</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-13.883044363796671</v>
+      </c>
+      <c r="Y93">
+        <v>-12.691014551951467</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>720.95</v>
+      </c>
+      <c r="D94">
+        <v>727.95</v>
+      </c>
+      <c r="E94">
+        <v>714</v>
+      </c>
+      <c r="F94">
+        <v>714</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>718.65</v>
+      </c>
+      <c r="H94">
+        <v>718.11082001821774</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>731.66504202037663</v>
+      </c>
+      <c r="K94">
+        <v>713.27986335975766</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>39.163535792509485</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>13.950000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>722.59656912992671</v>
+      </c>
+      <c r="W94">
+        <v>736.26169079888984</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-13.665121668963138</v>
+      </c>
+      <c r="Y94">
+        <v>-12.885835975353801</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>718.3</v>
+      </c>
+      <c r="D95">
+        <v>723.35</v>
+      </c>
+      <c r="E95">
+        <v>703.2</v>
+      </c>
+      <c r="F95">
+        <v>710</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>712.18333333333339</v>
+      </c>
+      <c r="H95">
+        <v>715.14707667577557</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>729.81725490473741</v>
+      </c>
+      <c r="K95">
+        <v>711.03989372425599</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>33.670107356771148</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>20.149999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.33746898263027109</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>720.65863541763031</v>
+      </c>
+      <c r="W95">
+        <v>734.31638036934248</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-13.657744951712175</v>
+      </c>
+      <c r="Y95">
+        <v>-13.040217770625476</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>710.3</v>
+      </c>
+      <c r="D96">
+        <v>724.25</v>
+      </c>
+      <c r="E96">
+        <v>709.95</v>
+      </c>
+      <c r="F96">
+        <v>712</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>715.4</v>
+      </c>
+      <c r="H96">
+        <v>715.27353833788777</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>728.58008714812911</v>
+      </c>
+      <c r="K96">
+        <v>710.79769511886582</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>39.016421789851194</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>14.299999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.14335664335664064</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>719.32653766107182</v>
+      </c>
+      <c r="W96">
+        <v>732.6633151567986</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-13.336777495726778</v>
+      </c>
+      <c r="Y96">
+        <v>-13.099529715645737</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>719</v>
+      </c>
+      <c r="D97">
+        <v>723</v>
+      </c>
+      <c r="E97">
+        <v>706</v>
+      </c>
+      <c r="F97">
+        <v>712</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>713.66666666666663</v>
+      </c>
+      <c r="H97">
+        <v>714.4701025022772</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>727.34006778187825</v>
+      </c>
+      <c r="K97">
+        <v>709.73154064800678</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>39.016421789851186</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>718.19937802090692</v>
+      </c>
+      <c r="W97">
+        <v>731.13269921925792</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-12.933321198350995</v>
+      </c>
+      <c r="Y97">
+        <v>-13.066288012186789</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>715.2</v>
+      </c>
+      <c r="D98">
+        <v>725.05</v>
+      </c>
+      <c r="E98">
+        <v>702.7</v>
+      </c>
+      <c r="F98">
+        <v>712.4</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>713.38333333333333</v>
+      </c>
+      <c r="H98">
+        <v>713.92671791780526</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>726.83116383034974</v>
+      </c>
+      <c r="K98">
+        <v>708.1689760595608</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>40.514741786816955</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>9.6999999999999318</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>22.349999999999909</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.43400447427292937</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>717.30716601769052</v>
+      </c>
+      <c r="W98">
+        <v>729.74509186968328</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-12.437925851992759</v>
+      </c>
+      <c r="Y98">
+        <v>-12.940615580147982</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>718.95</v>
+      </c>
+      <c r="D99">
+        <v>719</v>
+      </c>
+      <c r="E99">
+        <v>706</v>
+      </c>
+      <c r="F99">
+        <v>711</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>712</v>
+      </c>
+      <c r="H99">
+        <v>712.96335895890263</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>725.09090520138318</v>
+      </c>
+      <c r="K99">
+        <v>707.68698137965839</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>36.582476312230597</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>716.33683278419971</v>
+      </c>
+      <c r="W99">
+        <v>728.35656654600302</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-12.019733761803309</v>
+      </c>
+      <c r="Y99">
+        <v>-12.756439216479048</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>714</v>
+      </c>
+      <c r="D100">
+        <v>729.6</v>
+      </c>
+      <c r="E100">
+        <v>706.2</v>
+      </c>
+      <c r="F100">
+        <v>710</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>715.26666666666677</v>
+      </c>
+      <c r="H100">
+        <v>714.1150128127847</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>726.09292626774243</v>
+      </c>
+      <c r="K100">
+        <v>707.35654107306766</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>33.665105015632484</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.7999999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>23.399999999999977</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.16239316239316059</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>715.36193543278432</v>
+      </c>
+      <c r="W100">
+        <v>726.99682087592873</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-11.634885443144412</v>
+      </c>
+      <c r="Y100">
+        <v>-12.532128461812121</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>718.95</v>
+      </c>
+      <c r="D101">
+        <v>724</v>
+      </c>
+      <c r="E101">
+        <v>695.05</v>
+      </c>
+      <c r="F101">
+        <v>718</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>712.35</v>
+      </c>
+      <c r="H101">
+        <v>713.2325064063923</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>725.62783154157739</v>
+      </c>
+      <c r="K101">
+        <v>704.6217541679415</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>63.095569389328773</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>22.950000000000045</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>28.950000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.79274611398963768</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>715.76779152004826</v>
+      </c>
+      <c r="W101">
+        <v>726.33038969993402</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-10.562598179885754</v>
+      </c>
+      <c r="Y101">
+        <v>-12.138222405426848</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>714</v>
+      </c>
+      <c r="D102">
+        <v>720</v>
+      </c>
+      <c r="E102">
+        <v>697</v>
+      </c>
+      <c r="F102">
+        <v>697</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>704.66666666666663</v>
+      </c>
+      <c r="H102">
+        <v>708.94958653652952</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>724.37720231011576</v>
+      </c>
+      <c r="K102">
+        <v>702.92803101951006</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.692727538579941</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>712.88043897850241</v>
+      </c>
+      <c r="W102">
+        <v>724.15776824067962</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-11.277329262177204</v>
+      </c>
+      <c r="Y102">
+        <v>-11.966043776776919</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>704</v>
+      </c>
+      <c r="D103">
+        <v>704</v>
+      </c>
+      <c r="E103">
+        <v>667</v>
+      </c>
+      <c r="F103">
+        <v>687</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>686</v>
+      </c>
+      <c r="H103">
+        <v>697.47479326826476</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>719.84893513009001</v>
+      </c>
+      <c r="K103">
+        <v>694.94402412628563</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.991484503927058</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>708.89883298180973</v>
+      </c>
+      <c r="W103">
+        <v>721.40534096359227</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-12.506507981782534</v>
+      </c>
+      <c r="Y103">
+        <v>-12.074136617778041</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>696.95</v>
+      </c>
+      <c r="D104">
+        <v>699.95</v>
+      </c>
+      <c r="E104">
+        <v>675</v>
+      </c>
+      <c r="F104">
+        <v>696</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>690.31666666666661</v>
+      </c>
+      <c r="H104">
+        <v>693.89572996746574</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>715.42694954562558</v>
+      </c>
+      <c r="K104">
+        <v>690.51201876488881</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>37.369007465467689</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>24.950000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.84168336673346544</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>706.91439713845443</v>
+      </c>
+      <c r="W104">
+        <v>719.52346385517808</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-12.609066716723646</v>
+      </c>
+      <c r="Y104">
+        <v>-12.181122637567162</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
